--- a/eccrm-spec/spec-web/src/main/resources/poorTeenagersInfo.xlsx
+++ b/eccrm-spec/spec-web/src/main/resources/poorTeenagersInfo.xlsx
@@ -204,10 +204,10 @@
     <t>$content</t>
   </si>
   <si>
-    <t>帮扶记录</t>
-  </si>
-  <si>
-    <t>#c.title</t>
+    <t>慰问记录</t>
+  </si>
+  <si>
+    <t>#c.titleName</t>
   </si>
   <si>
     <t>#c.occurDate</t>
@@ -219,9 +219,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -257,6 +257,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -265,7 +273,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +294,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -286,39 +316,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,14 +342,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -356,9 +356,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,29 +373,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,187 +415,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,15 +640,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -671,16 +662,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,28 +691,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +714,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,10 +742,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,133 +754,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>

--- a/eccrm-spec/spec-web/src/main/resources/poorTeenagersInfo.xlsx
+++ b/eccrm-spec/spec-web/src/main/resources/poorTeenagersInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>家庭困难青少年信息登记表</t>
   </si>
@@ -207,7 +207,31 @@
     <t>慰问记录</t>
   </si>
   <si>
+    <t>慰问主题</t>
+  </si>
+  <si>
+    <t>慰问金额</t>
+  </si>
+  <si>
+    <t>参与人</t>
+  </si>
+  <si>
+    <t>详细情况</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
     <t>#c.titleName</t>
+  </si>
+  <si>
+    <t>#c.money</t>
+  </si>
+  <si>
+    <t>#c.members</t>
+  </si>
+  <si>
+    <t>#c.description</t>
   </si>
   <si>
     <t>#c.occurDate</t>
@@ -218,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -250,8 +274,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,57 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -324,6 +373,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -332,11 +388,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,18 +404,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,29 +417,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -415,19 +439,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,73 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,85 +601,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +665,36 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +710,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,50 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -903,8 +927,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1223,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
@@ -1426,19 +1450,42 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
+    <row r="17" ht="24" customHeight="1" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -1447,7 +1494,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B9:B10"/>

--- a/eccrm-spec/spec-web/src/main/resources/poorTeenagersInfo.xlsx
+++ b/eccrm-spec/spec-web/src/main/resources/poorTeenagersInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>家庭困难青少年信息登记表</t>
   </si>
@@ -76,6 +76,9 @@
     <t>$sexName</t>
   </si>
   <si>
+    <t>[picture]</t>
+  </si>
+  <si>
     <t>民    族</t>
   </si>
   <si>
@@ -244,8 +247,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -275,7 +278,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -290,19 +301,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,14 +317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,17 +330,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,6 +346,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -373,28 +392,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -403,7 +400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -417,6 +413,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -439,13 +442,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,55 +598,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,116 +626,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -661,11 +664,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,8 +711,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,21 +743,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +776,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,137 +805,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,7 +948,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,12 +1286,17 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.25" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16383" width="22.25" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="31.25" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="16383" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:5">
@@ -1280,110 +1321,112 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -1391,19 +1434,19 @@
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1411,10 +1454,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1442,53 +1485,51 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:5">
-      <c r="A17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="E17" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="E18" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -1497,7 +1538,7 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E2:E7"/>
     <mergeCell ref="B12:E15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
